--- a/src/main/resources/WordDocuments/KEM_GLET_Import.xlsx
+++ b/src/main/resources/WordDocuments/KEM_GLET_Import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="6285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="6285"/>
   </bookViews>
   <sheets>
     <sheet name="GLET From" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>* Indicates Required field</t>
   </si>
@@ -79,13 +79,72 @@
     <t>Amt*</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Delete the first three rows of text before saving your document to import </t>
-    </r>
+    <t>Etran Code*</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Choose the appropriate tab below (From or To)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the data you are importing. </t>
+    </r>
+  </si>
+  <si>
+    <t>I (Income) or P (Principal)*</t>
+  </si>
+  <si>
+    <t>Zero-fill*</t>
+  </si>
+  <si>
+    <t>Transaction Amount</t>
+  </si>
+  <si>
+    <t>If your institution has set the ACCOUNTS_CAN_CROSS_CHARTS_IND parameter to NO, delete the Chart column before using this template.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delete the first </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>four</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rows of text before saving your document to import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -103,48 +162,13 @@
       </rPr>
       <t xml:space="preserve"> in csv format.  </t>
     </r>
-  </si>
-  <si>
-    <t>Etran Code*</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Choose the appropriate tab below (From or To)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for the data you are importing. </t>
-    </r>
-  </si>
-  <si>
-    <t>I (Income) or P (Principal)*</t>
-  </si>
-  <si>
-    <t>Zero-fill*</t>
-  </si>
-  <si>
-    <t>Transaction Amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +207,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,13 +234,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -525,40 +558,45 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:9" s="2" customFormat="1">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -572,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -588,7 +626,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -604,22 +642,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12">
